--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/3_fold/130.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/3_fold/130.xlsx
@@ -479,13 +479,13 @@
         <v>-0.1138883834660175</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.601861044387655</v>
+        <v>-1.604192166706301</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.04257789010058403</v>
+        <v>-0.04286593559978206</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.1409666773348474</v>
+        <v>-0.1457957679989979</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.1120428306994254</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.581970951761339</v>
+        <v>-1.585776929996644</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.0745525145306862</v>
+        <v>-0.07354986435041766</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.1138353097409875</v>
+        <v>-0.1195285369027321</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.1217045823595034</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.631260573535309</v>
+        <v>-1.634549486489267</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.122486118831656</v>
+        <v>-0.1214236559247781</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.1098404492111263</v>
+        <v>-0.1150661926938446</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.1413482899914122</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.72624554441976</v>
+        <v>-1.728760826975598</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.1485613195951233</v>
+        <v>-0.1481394824706146</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.1202856401000777</v>
+        <v>-0.1258372055409052</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.1583339616303036</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.761205296113409</v>
+        <v>-1.760294726051736</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.1084742006138373</v>
+        <v>-0.1090565876887186</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.1109375405386729</v>
+        <v>-0.1160531026829001</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.158442173614068</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.623328304173514</v>
+        <v>-1.621016857093884</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.04414246510715691</v>
+        <v>-0.04459263457584891</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.1126484993235267</v>
+        <v>-0.1170809371691095</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.1331782790147586</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.331175402078454</v>
+        <v>-1.331873479558751</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.01189868340731232</v>
+        <v>-0.009600615490213319</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.1060502111670343</v>
+        <v>-0.1117906589024179</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.07901370080722772</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.9074171872323223</v>
+        <v>-0.9104416649739017</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.01671360789937113</v>
+        <v>-0.009970509983718982</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.06600244266378087</v>
+        <v>-0.07164844925188643</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>0.005100827507404091</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.3756104298045049</v>
+        <v>-0.383123223070473</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.06717508690914988</v>
+        <v>-0.05708247630336987</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.01941777274976571</v>
+        <v>-0.02447037412914092</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>0.1189186744473454</v>
       </c>
       <c r="E11" t="n">
-        <v>0.1949683536287519</v>
+        <v>0.1821463938666365</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.1323489226457261</v>
+        <v>-0.1171234356853846</v>
       </c>
       <c r="G11" t="n">
-        <v>0.06431217440782437</v>
+        <v>0.05812627926111268</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.2614963269516415</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8786183746597648</v>
+        <v>0.8620124729300426</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.2651441938525013</v>
+        <v>-0.2465392878387272</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1439528198882753</v>
+        <v>0.1379274746919363</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.4266890907831571</v>
       </c>
       <c r="E13" t="n">
-        <v>1.578010160922906</v>
+        <v>1.556154905423646</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.475343429368359</v>
+        <v>-0.4520007257994698</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2620357343682529</v>
+        <v>0.2565298154819431</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.6030004025967807</v>
       </c>
       <c r="E14" t="n">
-        <v>2.307039153221018</v>
+        <v>2.280578317772832</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.7095637706943866</v>
+        <v>-0.6833217239040615</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3836365815843375</v>
+        <v>0.3774349462464128</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.7756369183243681</v>
       </c>
       <c r="E15" t="n">
-        <v>3.04328187515205</v>
+        <v>3.013465230937252</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.9603900137501363</v>
+        <v>-0.9314737084727215</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4953651808716242</v>
+        <v>0.4895019596447792</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.9339493640196177</v>
       </c>
       <c r="E16" t="n">
-        <v>3.663221898229297</v>
+        <v>3.633981345012894</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.251796043772139</v>
+        <v>-1.216474267680591</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6452212453341775</v>
+        <v>0.6356779674017314</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>1.082523947034044</v>
       </c>
       <c r="E17" t="n">
-        <v>4.258857492054539</v>
+        <v>4.228271152489424</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.511272308908997</v>
+        <v>-1.471610962100023</v>
       </c>
       <c r="G17" t="n">
-        <v>0.7957132135217363</v>
+        <v>0.785409684353702</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>1.233953790543173</v>
       </c>
       <c r="E18" t="n">
-        <v>4.786183804053574</v>
+        <v>4.756648909261489</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.754116701000631</v>
+        <v>-1.713011978657424</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9351461233630364</v>
+        <v>0.9224878615895362</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>1.391348006540693</v>
       </c>
       <c r="E19" t="n">
-        <v>5.216593036696763</v>
+        <v>5.186733893965688</v>
       </c>
       <c r="F19" t="n">
-        <v>-2.048530681563439</v>
+        <v>-2.002862090778021</v>
       </c>
       <c r="G19" t="n">
-        <v>1.080236057926291</v>
+        <v>1.067768252466468</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.542727559278233</v>
       </c>
       <c r="E20" t="n">
-        <v>5.555232232510756</v>
+        <v>5.524472750842298</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.303963291577676</v>
+        <v>-2.256824566932963</v>
       </c>
       <c r="G20" t="n">
-        <v>1.231798359116334</v>
+        <v>1.218677335721172</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.672629545549315</v>
       </c>
       <c r="E21" t="n">
-        <v>5.839465457396992</v>
+        <v>5.809129386872163</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.528819006141525</v>
+        <v>-2.479482950803476</v>
       </c>
       <c r="G21" t="n">
-        <v>1.367566952443247</v>
+        <v>1.355513114012326</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.773637682005544</v>
       </c>
       <c r="E22" t="n">
-        <v>6.043585831066386</v>
+        <v>6.01478915124219</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.733270710835953</v>
+        <v>-2.684883789028049</v>
       </c>
       <c r="G22" t="n">
-        <v>1.483742155748208</v>
+        <v>1.471151576796923</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.845452893110663</v>
       </c>
       <c r="E23" t="n">
-        <v>6.185979470874853</v>
+        <v>6.154977590261715</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.851758148230105</v>
+        <v>-2.804887793845574</v>
       </c>
       <c r="G23" t="n">
-        <v>1.583380714164784</v>
+        <v>1.570333669668323</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.888534205493135</v>
       </c>
       <c r="E24" t="n">
-        <v>6.290990156552429</v>
+        <v>6.259470423648382</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.922252168596677</v>
+        <v>-2.877603542201862</v>
       </c>
       <c r="G24" t="n">
-        <v>1.630453330006402</v>
+        <v>1.617930433877334</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.901835040881555</v>
       </c>
       <c r="E25" t="n">
-        <v>6.307216719673917</v>
+        <v>6.277034903022976</v>
       </c>
       <c r="F25" t="n">
-        <v>-3.000616284569753</v>
+        <v>-2.95576460970829</v>
       </c>
       <c r="G25" t="n">
-        <v>1.678945711095434</v>
+        <v>1.66808655317758</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.886798249399299</v>
       </c>
       <c r="E26" t="n">
-        <v>6.293711635613157</v>
+        <v>6.265286424301588</v>
       </c>
       <c r="F26" t="n">
-        <v>-3.061645727959945</v>
+        <v>-3.016814515347059</v>
       </c>
       <c r="G26" t="n">
-        <v>1.697465620076658</v>
+        <v>1.686630072445624</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.848110624106373</v>
       </c>
       <c r="E27" t="n">
-        <v>6.195248869480192</v>
+        <v>6.16881636637619</v>
       </c>
       <c r="F27" t="n">
-        <v>-3.075129562762568</v>
+        <v>-3.03065958753802</v>
       </c>
       <c r="G27" t="n">
-        <v>1.703520871636302</v>
+        <v>1.693037904288439</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.791026165028202</v>
       </c>
       <c r="E28" t="n">
-        <v>6.028099056931909</v>
+        <v>6.003786757584298</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.085821874653563</v>
+        <v>-3.040690811398069</v>
       </c>
       <c r="G28" t="n">
-        <v>1.688322143001022</v>
+        <v>1.678545910238624</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.720575070272856</v>
       </c>
       <c r="E29" t="n">
-        <v>5.854906584976951</v>
+        <v>5.832631066372304</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.040254021091908</v>
+        <v>-2.99718649690444</v>
       </c>
       <c r="G29" t="n">
-        <v>1.651072980495441</v>
+        <v>1.641521832467389</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.641970565385274</v>
       </c>
       <c r="E30" t="n">
-        <v>5.659049811694386</v>
+        <v>5.638925977228556</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.009604720761941</v>
+        <v>-2.968004969405085</v>
       </c>
       <c r="G30" t="n">
-        <v>1.580039071570263</v>
+        <v>1.571459093340053</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.558240623850265</v>
       </c>
       <c r="E31" t="n">
-        <v>5.417003447297251</v>
+        <v>5.398864450943382</v>
       </c>
       <c r="F31" t="n">
-        <v>-2.905122118499562</v>
+        <v>-2.866314677063894</v>
       </c>
       <c r="G31" t="n">
-        <v>1.505125205511078</v>
+        <v>1.496897807564039</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.471199923150869</v>
       </c>
       <c r="E32" t="n">
-        <v>5.185954754500644</v>
+        <v>5.167341978391264</v>
       </c>
       <c r="F32" t="n">
-        <v>-2.843990363866486</v>
+        <v>-2.80479886176522</v>
       </c>
       <c r="G32" t="n">
-        <v>1.431749156133403</v>
+        <v>1.423454075364149</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.382057515805871</v>
       </c>
       <c r="E33" t="n">
-        <v>4.890004531275446</v>
+        <v>4.872507734723068</v>
       </c>
       <c r="F33" t="n">
-        <v>-2.716827720085286</v>
+        <v>-2.680100344918416</v>
       </c>
       <c r="G33" t="n">
-        <v>1.356361510318707</v>
+        <v>1.349437400204105</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.289810124925625</v>
       </c>
       <c r="E34" t="n">
-        <v>4.626099763340809</v>
+        <v>4.611480273742169</v>
       </c>
       <c r="F34" t="n">
-        <v>-2.639779484097617</v>
+        <v>-2.603418068376449</v>
       </c>
       <c r="G34" t="n">
-        <v>1.255567621867096</v>
+        <v>1.248641937733373</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.192268712261934</v>
       </c>
       <c r="E35" t="n">
-        <v>4.307620604432435</v>
+        <v>4.296452938766806</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.56338682707397</v>
+        <v>-2.529380930967829</v>
       </c>
       <c r="G35" t="n">
-        <v>1.163748790445142</v>
+        <v>1.1569694900897</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.08901806579825</v>
       </c>
       <c r="E36" t="n">
-        <v>3.967386927248563</v>
+        <v>3.956743409950328</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.465471032585657</v>
+        <v>-2.432977768855086</v>
       </c>
       <c r="G36" t="n">
-        <v>1.080934922416149</v>
+        <v>1.076582759545752</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.9808727777573039</v>
       </c>
       <c r="E37" t="n">
-        <v>3.683322122408307</v>
+        <v>3.673098868215459</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.395389405228865</v>
+        <v>-2.36413646856588</v>
       </c>
       <c r="G37" t="n">
-        <v>0.9951335660949269</v>
+        <v>0.9900919828494008</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.8703474866050415</v>
       </c>
       <c r="E38" t="n">
-        <v>3.378003337373127</v>
+        <v>3.371913457392814</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.327398075265161</v>
+        <v>-2.296062502598307</v>
       </c>
       <c r="G38" t="n">
-        <v>0.9042087775338714</v>
+        <v>0.9003807630308681</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.7615319395177307</v>
       </c>
       <c r="E39" t="n">
-        <v>3.057215092413804</v>
+        <v>3.053402818102014</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.246772880824337</v>
+        <v>-2.217955738751563</v>
       </c>
       <c r="G39" t="n">
-        <v>0.8148076394822349</v>
+        <v>0.8119256104711333</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.6573425256373296</v>
       </c>
       <c r="E40" t="n">
-        <v>2.780162542758942</v>
+        <v>2.774011276032899</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.173820242590292</v>
+        <v>-2.144264885549629</v>
       </c>
       <c r="G40" t="n">
-        <v>0.7469091766466871</v>
+        <v>0.7448912841331796</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.5596391430988633</v>
       </c>
       <c r="E41" t="n">
-        <v>2.481497136549501</v>
+        <v>2.476872668371119</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.11113178304625</v>
+        <v>-2.083713943972313</v>
       </c>
       <c r="G41" t="n">
-        <v>0.6872365377390568</v>
+        <v>0.6864148997577378</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.4701893951890636</v>
       </c>
       <c r="E42" t="n">
-        <v>2.203034265761953</v>
+        <v>2.200254547993736</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.023603727748961</v>
+        <v>-1.997573386530451</v>
       </c>
       <c r="G42" t="n">
-        <v>0.613731418793436</v>
+        <v>0.6143500083081072</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.3889346265552073</v>
       </c>
       <c r="E43" t="n">
-        <v>1.950117725313116</v>
+        <v>1.947378932042053</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.96078383760829</v>
+        <v>-1.934701553758777</v>
       </c>
       <c r="G43" t="n">
-        <v>0.544701236209673</v>
+        <v>0.5442180123394337</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.3148744752565695</v>
       </c>
       <c r="E44" t="n">
-        <v>1.748986413955072</v>
+        <v>1.745572366480971</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.907375007793876</v>
+        <v>-1.882854937922254</v>
       </c>
       <c r="G44" t="n">
-        <v>0.478032082307861</v>
+        <v>0.477696816235024</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.2477298769351248</v>
       </c>
       <c r="E45" t="n">
-        <v>1.533511066344614</v>
+        <v>1.532554062718863</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.821761746757649</v>
+        <v>-1.797638329704595</v>
       </c>
       <c r="G45" t="n">
-        <v>0.4273376484681298</v>
+        <v>0.4267977599095237</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.186600260091256</v>
       </c>
       <c r="E46" t="n">
-        <v>1.338907212282604</v>
+        <v>1.336711455608389</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.761106132908767</v>
+        <v>-1.738016846418407</v>
       </c>
       <c r="G46" t="n">
-        <v>0.3733047200721198</v>
+        <v>0.3747323554151395</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.1308724224630612</v>
       </c>
       <c r="E47" t="n">
-        <v>1.182851086501247</v>
+        <v>1.182005838233108</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.728943413193669</v>
+        <v>-1.706560861288773</v>
       </c>
       <c r="G47" t="n">
-        <v>0.3275668724453644</v>
+        <v>0.3271686456076753</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.08108619080869364</v>
       </c>
       <c r="E48" t="n">
-        <v>1.004442315178299</v>
+        <v>1.005079792922426</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.666568183454765</v>
+        <v>-1.644000684303117</v>
       </c>
       <c r="G48" t="n">
-        <v>0.2561142744339197</v>
+        <v>0.2561252925677688</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.03702629761166167</v>
       </c>
       <c r="E49" t="n">
-        <v>0.8582206608668291</v>
+        <v>0.8587605494254353</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.616505718292236</v>
+        <v>-1.593765077037245</v>
       </c>
       <c r="G49" t="n">
-        <v>0.2209837416656096</v>
+        <v>0.2214795576888194</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-0.001660095028071257</v>
       </c>
       <c r="E50" t="n">
-        <v>0.7582830388172059</v>
+        <v>0.7591581934486491</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.567055546567893</v>
+        <v>-1.543048606929815</v>
       </c>
       <c r="G50" t="n">
-        <v>0.1791935339950764</v>
+        <v>0.1795996309283719</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-0.03531020490306557</v>
       </c>
       <c r="E51" t="n">
-        <v>0.6428554945948626</v>
+        <v>0.6437133350159715</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.530443074796879</v>
+        <v>-1.505814397605887</v>
       </c>
       <c r="G51" t="n">
-        <v>0.1454056395372358</v>
+        <v>0.145574059583215</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-0.06487428120003182</v>
       </c>
       <c r="E52" t="n">
-        <v>0.5370562253375155</v>
+        <v>0.5365840196011253</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.485352936038538</v>
+        <v>-1.461815054098608</v>
       </c>
       <c r="G52" t="n">
-        <v>0.1052681519440683</v>
+        <v>0.1060850678680233</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-0.09128562760415325</v>
       </c>
       <c r="E53" t="n">
-        <v>0.47062474832302</v>
+        <v>0.4683912151898943</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.44316922358768</v>
+        <v>-1.421795617939538</v>
       </c>
       <c r="G53" t="n">
-        <v>0.07389480281830296</v>
+        <v>0.07424895712059562</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.1151827908104692</v>
       </c>
       <c r="E54" t="n">
-        <v>0.3825914328877938</v>
+        <v>0.377394021749259</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.394007097362535</v>
+        <v>-1.370340932864219</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04201619355460014</v>
+        <v>0.04330216717670279</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.1368856694946792</v>
       </c>
       <c r="E55" t="n">
-        <v>0.29505708151402</v>
+        <v>0.2876544695865429</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.362039556018479</v>
+        <v>-1.338720462736409</v>
       </c>
       <c r="G55" t="n">
-        <v>0.006599189306213359</v>
+        <v>0.008613933781478239</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.1568502968557745</v>
       </c>
       <c r="E56" t="n">
-        <v>0.2322395524020309</v>
+        <v>0.2238799368488029</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.341301067085781</v>
+        <v>-1.318610794442671</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.009487286113479669</v>
+        <v>-0.00843269330220821</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.1757333055970092</v>
       </c>
       <c r="E57" t="n">
-        <v>0.1566583022354144</v>
+        <v>0.1480594357757488</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.348134671100909</v>
+        <v>-1.325568745968381</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.04563148719590737</v>
+        <v>-0.04437856797535202</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.1944290797400894</v>
       </c>
       <c r="E58" t="n">
-        <v>0.09344569432397881</v>
+        <v>0.08477284896561202</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.326733520118144</v>
+        <v>-1.305544074707194</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.07513017954820356</v>
+        <v>-0.07444862926868036</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.2135232348056758</v>
       </c>
       <c r="E59" t="n">
-        <v>0.05781304945597384</v>
+        <v>0.04779441774889496</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.336974875530887</v>
+        <v>-1.315916073707005</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.1006214192176682</v>
+        <v>-0.0994928475076956</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.2331064930399335</v>
       </c>
       <c r="E60" t="n">
-        <v>0.006846310308257567</v>
+        <v>-0.005547516252864049</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.339611357559065</v>
+        <v>-1.319779503640237</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.1046383160152276</v>
+        <v>-0.1041094455904705</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.2530061882533386</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.02984722344750407</v>
+        <v>-0.04384340147410978</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.319352157448804</v>
+        <v>-1.299764276493778</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.1357960245213747</v>
+        <v>-0.1352608580201324</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.2732165485128604</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.08408005227191927</v>
+        <v>-0.09780707302878257</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.344717475588565</v>
+        <v>-1.324529893348323</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.1426902282726717</v>
+        <v>-0.1428004096111627</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.2936708019349162</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.1251131567451069</v>
+        <v>-0.1408958464743889</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.385349992195381</v>
+        <v>-1.364487155752101</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.1620616815985192</v>
+        <v>-0.1617563218889869</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.3144901590141568</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.1770274554038462</v>
+        <v>-0.1951633037194727</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.427835916317529</v>
+        <v>-1.406023946344105</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.1773139268839229</v>
+        <v>-0.1774241082224139</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.3360409058255045</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.2279154935954974</v>
+        <v>-0.2479228506463504</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.460288255550946</v>
+        <v>-1.438843032032785</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.2028083145916302</v>
+        <v>-0.2028508131079053</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.3585636169852973</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.2945626112296111</v>
+        <v>-0.314694315791047</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.501019148352844</v>
+        <v>-1.48076781833819</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.2080198919022567</v>
+        <v>-0.2087250524685994</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.3827380133549526</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.2798644206749053</v>
+        <v>-0.3017558786139553</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.54695138734108</v>
+        <v>-1.52706837780081</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.2410349429715387</v>
+        <v>-0.2417936201880056</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.407995156190909</v>
       </c>
       <c r="E68" t="n">
-        <v>-0.3098416148400769</v>
+        <v>-0.329362599982448</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.580598407087564</v>
+        <v>-1.558212707144426</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.2514706897457622</v>
+        <v>-0.2521160375854955</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.4334859988163299</v>
       </c>
       <c r="E69" t="n">
-        <v>-0.3386020922244831</v>
+        <v>-0.3575155059860322</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.641043102374193</v>
+        <v>-1.617753915455428</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.2590716280825232</v>
+        <v>-0.2583680415353018</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.4586052912176429</v>
       </c>
       <c r="E70" t="n">
-        <v>-0.3652439398716185</v>
+        <v>-0.3839983777019162</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.658012602520935</v>
+        <v>-1.635647364826374</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.2695593174877497</v>
+        <v>-0.2687408275446734</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.4824176045662679</v>
       </c>
       <c r="E71" t="n">
-        <v>-0.3740820572377219</v>
+        <v>-0.391001188772583</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.698350777552069</v>
+        <v>-1.674213981336484</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.288636429237914</v>
+        <v>-0.2874086943232995</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.5039610244627891</v>
       </c>
       <c r="E72" t="n">
-        <v>-0.3731817183003379</v>
+        <v>-0.3893154142936699</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.732097747512756</v>
+        <v>-1.707037789082527</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.2861368868732885</v>
+        <v>-0.2849815568382538</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.5224069953478776</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.3358019122076892</v>
+        <v>-0.3503253866399306</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.75486593410237</v>
+        <v>-1.731551562877664</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.2896186171696057</v>
+        <v>-0.2874370266674829</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.5371111745810916</v>
       </c>
       <c r="E74" t="n">
-        <v>-0.2938936531030584</v>
+        <v>-0.3087224872448321</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.788132041221499</v>
+        <v>-1.764084964095828</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.2945799254399454</v>
+        <v>-0.2922031565667814</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.5475191301913741</v>
       </c>
       <c r="E75" t="n">
-        <v>-0.2326485690932486</v>
+        <v>-0.2456830214367396</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.806203354753153</v>
+        <v>-1.783239202782936</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.2997962248079359</v>
+        <v>-0.2961366303509118</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.553312352122556</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.1255570301373137</v>
+        <v>-0.138142887031234</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.813864892826084</v>
+        <v>-1.791301328722238</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.2836672508719678</v>
+        <v>-0.2792899036956306</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.5544531336852666</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.04120219738856723</v>
+        <v>-0.05192441564286751</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.800136298050099</v>
+        <v>-1.777588474137467</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.270330586857187</v>
+        <v>-0.2658556504953292</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.5503370898056676</v>
       </c>
       <c r="E78" t="n">
-        <v>0.0932143135131476</v>
+        <v>0.08314846123242971</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.803751032962166</v>
+        <v>-1.781434589860365</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.2443403831262701</v>
+        <v>-0.2383811467330257</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.5403191782869191</v>
       </c>
       <c r="E79" t="n">
-        <v>0.221079756832009</v>
+        <v>0.210809282065522</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.831400252846934</v>
+        <v>-1.810015629064943</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.2273394025971014</v>
+        <v>-0.2217421906017561</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.5244818999523624</v>
       </c>
       <c r="E80" t="n">
-        <v>0.3687495087350756</v>
+        <v>0.3575299004384443</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.78490136697503</v>
+        <v>-1.766461732968992</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.2015821536961369</v>
+        <v>-0.1955851408439813</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.5033538994114365</v>
       </c>
       <c r="E81" t="n">
-        <v>0.4975577895075961</v>
+        <v>0.4873093510088073</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.761426445799951</v>
+        <v>-1.7445671269917</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.1723809509577665</v>
+        <v>-0.1668986423582763</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.4774345464626956</v>
       </c>
       <c r="E82" t="n">
-        <v>0.6787620187899739</v>
+        <v>0.6662894912727872</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.72004941814876</v>
+        <v>-1.704878234848103</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.145984650293554</v>
+        <v>-0.1408801062831759</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.4470764338397997</v>
       </c>
       <c r="E83" t="n">
-        <v>0.8499570604800005</v>
+        <v>0.839233268206579</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.647576855746712</v>
+        <v>-1.63514603973624</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.1296195734893908</v>
+        <v>-0.1224688046213217</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.4130277721485011</v>
       </c>
       <c r="E84" t="n">
-        <v>1.034096835423604</v>
+        <v>1.02130005996743</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.564024772749829</v>
+        <v>-1.554987541964881</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.1140383582076352</v>
+        <v>-0.1066200060889451</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.3766683426945913</v>
       </c>
       <c r="E85" t="n">
-        <v>1.182386750860463</v>
+        <v>1.168560566898958</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.459646842759016</v>
+        <v>-1.450116943989101</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.09570103544448225</v>
+        <v>-0.08685347396365108</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.3396206243590126</v>
       </c>
       <c r="E86" t="n">
-        <v>1.342773003244518</v>
+        <v>1.33003289247671</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.340841453502362</v>
+        <v>-1.332976866962783</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.06569708295424853</v>
+        <v>-0.05675980238350323</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.3038563800729425</v>
       </c>
       <c r="E87" t="n">
-        <v>1.485955226632756</v>
+        <v>1.471008341056885</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.208635652456514</v>
+        <v>-1.202534754342352</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.04241734015021136</v>
+        <v>-0.03292600484876821</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.2713820818210229</v>
       </c>
       <c r="E88" t="n">
-        <v>1.573069314901143</v>
+        <v>1.561081585273317</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.060462214434631</v>
+        <v>-1.056402032111236</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.02797728873139885</v>
+        <v>-0.01878659108212413</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.2436145166764493</v>
       </c>
       <c r="E89" t="n">
-        <v>1.679197554154842</v>
+        <v>1.666315781666117</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.9114214918769113</v>
+        <v>-0.9103157434441976</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.004088400527418311</v>
+        <v>0.005325807837081102</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.2212714247066757</v>
       </c>
       <c r="E90" t="n">
-        <v>1.722149387936895</v>
+        <v>1.710087679410368</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.7165587116694468</v>
+        <v>-0.7187119698273862</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.003954608902107752</v>
+        <v>0.006537802560482632</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-0.2048145793741037</v>
       </c>
       <c r="E91" t="n">
-        <v>1.735994460127856</v>
+        <v>1.72720198931627</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.5309110264076372</v>
+        <v>-0.5336750039846412</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.02056523268919391</v>
+        <v>-0.01144536590037773</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.1947173102671094</v>
       </c>
       <c r="E92" t="n">
-        <v>1.707204076380145</v>
+        <v>1.69956221354623</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.3656878132638253</v>
+        <v>-0.3695236978624351</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.0237447513142213</v>
+        <v>-0.01471302959619795</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.1911220819985526</v>
       </c>
       <c r="E93" t="n">
-        <v>1.661818809036561</v>
+        <v>1.655950865752352</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.2127655595529783</v>
+        <v>-0.2169855048171854</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.03716483834243096</v>
+        <v>-0.02976065239583253</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.1937963774224318</v>
       </c>
       <c r="E94" t="n">
-        <v>1.561087881349802</v>
+        <v>1.557267736942406</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.07293442287398909</v>
+        <v>-0.07838525109105338</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.04423848027355626</v>
+        <v>-0.03608820926346129</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.2013168575640767</v>
       </c>
       <c r="E95" t="n">
-        <v>1.492194638429592</v>
+        <v>1.487488321256903</v>
       </c>
       <c r="F95" t="n">
-        <v>0.0337053725941325</v>
+        <v>0.02828130270213033</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.0782152570259529</v>
+        <v>-0.07136984786741621</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.211958347611307</v>
       </c>
       <c r="E96" t="n">
-        <v>1.407096868655592</v>
+        <v>1.403218485540707</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1168120081796875</v>
+        <v>0.1103711219353251</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.1070402691943324</v>
+        <v>-0.1004262408466269</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.2223573056738425</v>
       </c>
       <c r="E97" t="n">
-        <v>1.326321355388683</v>
+        <v>1.323041099539893</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1800560964735491</v>
+        <v>0.1735286391775152</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.1275623304978508</v>
+        <v>-0.1202069391440126</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.2291685713688841</v>
       </c>
       <c r="E98" t="n">
-        <v>1.232605830925562</v>
+        <v>1.228527547382272</v>
       </c>
       <c r="F98" t="n">
-        <v>0.2138975075815139</v>
+        <v>0.2066097990498918</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.1475744096060677</v>
+        <v>-0.1407526107343505</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.2293251529734723</v>
       </c>
       <c r="E99" t="n">
-        <v>1.147674907178419</v>
+        <v>1.14246018182955</v>
       </c>
       <c r="F99" t="n">
-        <v>0.2341897620933224</v>
+        <v>0.2273553710686348</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.1498457191981046</v>
+        <v>-0.143105769320695</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.2233152166300884</v>
       </c>
       <c r="E100" t="n">
-        <v>1.059087537012495</v>
+        <v>1.054200207640857</v>
       </c>
       <c r="F100" t="n">
-        <v>0.2461916578932402</v>
+        <v>0.2393493967729461</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.1642165137755799</v>
+        <v>-0.1576103555234809</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.2138989154291386</v>
       </c>
       <c r="E101" t="n">
-        <v>0.9686648605511345</v>
+        <v>0.9636279993629724</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2428153868780502</v>
+        <v>0.2339158827662161</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.1786345289266942</v>
+        <v>-0.1714538536953205</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.2107197694494633</v>
       </c>
       <c r="E102" t="n">
-        <v>0.9067854468354406</v>
+        <v>0.9024694864048342</v>
       </c>
       <c r="F102" t="n">
-        <v>0.24851491011628</v>
+        <v>0.2400167808803776</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.205079624183667</v>
+        <v>-0.1970647188180039</v>
       </c>
     </row>
   </sheetData>
